--- a/Data_clean/MCAS/Estados_US/Edos_USA_2014/DELAWARE_2014.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2014/DELAWARE_2014.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -447,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -496,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -545,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Angel Albino Corzo</t>
@@ -558,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Arriaga</t>
@@ -571,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Bella Vista</t>
@@ -584,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Cacahoatán</t>
@@ -597,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -610,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -623,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Frontera Hidalgo</t>
@@ -636,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -649,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -662,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -675,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -688,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>La Grandeza</t>
@@ -701,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -714,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Mitontic</t>
@@ -740,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -753,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -766,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -779,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Suchiapa</t>
@@ -792,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -805,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Tecpatán</t>
@@ -818,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Unión Juárez</t>
@@ -831,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Villa Comaltitlán</t>
@@ -844,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Total</t>
@@ -875,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Allende</t>
@@ -888,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -901,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Dr. Belisario Domínguez</t>
@@ -914,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -927,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -940,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Madera</t>
@@ -953,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Saucillo</t>
@@ -1038,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -1051,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1064,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -1077,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Cuajimalpa De Morelos</t>
@@ -1090,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1103,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1116,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1129,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1142,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>La Magdalena Contreras</t>
@@ -1155,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1168,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Milpa Alta</t>
@@ -1181,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -1194,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1207,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1220,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -1269,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Gómez Palacio</t>
@@ -1282,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Mapimí</t>
@@ -1295,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Mezquital</t>
@@ -1308,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Pánuco De Coronado</t>
@@ -1321,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Pueblo Nuevo</t>
@@ -1334,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>San Bernardo</t>
@@ -1383,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Almoloya De Alquisiras</t>
@@ -1396,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Almoloya De Juárez</t>
@@ -1409,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Amanalco</t>
@@ -1422,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Amatepec</t>
@@ -1435,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Atizapán</t>
@@ -1448,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Atizapán De Zaragoza</t>
@@ -1461,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Atlacomulco</t>
@@ -1474,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Atlautla</t>
@@ -1487,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Calimaya</t>
@@ -1500,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Capulhuac</t>
@@ -1513,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -1526,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Chapa De Mota</t>
@@ -1539,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Chimalhuacán</t>
@@ -1552,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -1565,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Cocotitlán</t>
@@ -1578,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -1591,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Huixquilucan</t>
@@ -1604,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Isidro Fabela</t>
@@ -1617,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Ixtapaluca</t>
@@ -1630,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -1643,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Ixtlahuaca</t>
@@ -1656,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Jocotitlán</t>
@@ -1669,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Malinalco</t>
@@ -1682,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -1695,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -1708,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Nicolás Romero</t>
@@ -1721,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Otzolotepec</t>
@@ -1734,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Ozumba</t>
@@ -1747,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Rayón</t>
@@ -1760,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -1773,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Santo Tomás</t>
@@ -1786,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -1799,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -1812,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -1825,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Temascaltepec</t>
@@ -1838,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Temoaya</t>
@@ -1851,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -1864,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Tenango Del Valle</t>
@@ -1877,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Tepetlaoxtoc</t>
@@ -1890,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Texcaltitlán</t>
@@ -1903,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1916,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1929,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Tultitlán</t>
@@ -1942,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Valle De Bravo</t>
@@ -1955,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Villa De Allende</t>
@@ -1968,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Villa Del Carbón</t>
@@ -1981,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -1994,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Villa Victoria</t>
@@ -2007,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Zacualpan</t>
@@ -2020,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Zinacantepec</t>
@@ -2033,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Zumpahuacán</t>
@@ -2046,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2077,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -2090,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Coroneo</t>
@@ -2103,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Cuerámaro</t>
@@ -2116,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Doctor Mora</t>
@@ -2129,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -2142,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -2155,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -2168,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>León</t>
@@ -2181,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -2194,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Moroleón</t>
@@ -2207,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -2220,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -2233,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -2246,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>San José Iturbide</t>
@@ -2259,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -2272,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Uriangato</t>
@@ -2285,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -2298,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Villagrán</t>
@@ -2311,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -2360,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Ajuchitlán Del Progreso</t>
@@ -2373,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Apaxtla</t>
@@ -2386,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Atenango Del Río</t>
@@ -2399,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Atlamajalcingo Del Monte</t>
@@ -2412,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -2425,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -2438,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -2451,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -2464,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -2477,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Cualác</t>
@@ -2490,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Eduardo Neri</t>
@@ -2503,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Florencio Villarreal</t>
@@ -2516,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>General Canuto A. Neri</t>
@@ -2529,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>General Heliodoro Castillo</t>
@@ -2542,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Huamuxtitlán</t>
@@ -2555,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -2568,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -2581,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -2594,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -2607,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -2620,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -2633,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Metlatónoc</t>
@@ -2646,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Olinalá</t>
@@ -2659,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -2672,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Pedro Ascencio Alquisiras</t>
@@ -2685,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -2698,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Pilcaya</t>
@@ -2711,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -2724,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -2737,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Taxco De Alarcón</t>
@@ -2750,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -2763,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -2776,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Tepecoacuilco De Trujano</t>
@@ -2789,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Tetipac</t>
@@ -2802,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Tixtla De Guerrero</t>
@@ -2815,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Tlacoachistlahuaca</t>
@@ -2828,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Tlalchapa</t>
@@ -2841,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -2854,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Xochistlahuaca</t>
@@ -2903,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Cardonal</t>
@@ -2916,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Chapantongo</t>
@@ -2929,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Chapulhuacán</t>
@@ -2942,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -2955,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -2968,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>La Misión</t>
@@ -2981,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Metztitlán</t>
@@ -2994,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -3007,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Pisaflores</t>
@@ -3020,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>San Felipe Orizatlán</t>
@@ -3033,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>San Salvador</t>
@@ -3046,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Tecozautla</t>
@@ -3059,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Tepeapulco</t>
@@ -3072,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Zacualtipán De Ángeles</t>
@@ -3121,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Encarnación De Díaz</t>
@@ -3134,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -3147,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -3160,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -3173,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>San Gabriel</t>
@@ -3186,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>San Juan De Los Lagos</t>
@@ -3199,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>San Martín De Bolaños</t>
@@ -3212,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Tecolotlán</t>
@@ -3225,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -3238,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Zapotlán El Grande</t>
@@ -3251,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -3300,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Ario</t>
@@ -3313,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Carácuaro</t>
@@ -3326,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Coeneo</t>
@@ -3339,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -3352,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Erongarícuaro</t>
@@ -3365,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -3378,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -3391,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Jacona</t>
@@ -3404,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Jiménez</t>
@@ -3417,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>La Huacana</t>
@@ -3430,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -3443,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -3456,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Nocupétaro</t>
@@ -3469,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -3482,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Parácuaro</t>
@@ -3495,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -3508,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Peribán</t>
@@ -3521,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -3534,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Quiroga</t>
@@ -3547,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>San Lucas</t>
@@ -3560,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Tacámbaro</t>
@@ -3573,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Tangamandapio</t>
@@ -3586,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Taretan</t>
@@ -3599,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Turicato</t>
@@ -3612,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -3625,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -3638,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Zinapécuaro</t>
@@ -3687,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Axochiapan</t>
@@ -3700,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Ayala</t>
@@ -3713,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Coatlán Del Río</t>
@@ -3726,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -3739,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -3752,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -3765,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Jiutepec</t>
@@ -3778,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Jojutla</t>
@@ -3791,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Jonacatepec</t>
@@ -3804,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Puente De Ixtla</t>
@@ -3817,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Temixco</t>
@@ -3830,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Tepalcingo</t>
@@ -3843,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Tetecala</t>
@@ -3856,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Tetela Del Volcán</t>
@@ -3869,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Tlaltizapán</t>
@@ -3882,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Xochitepec</t>
@@ -3895,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -3908,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Zacatepec De Hidalgo</t>
@@ -3957,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Jala</t>
@@ -3970,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>La Yesca</t>
@@ -3983,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Rosamorada</t>
@@ -3996,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -4009,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -4058,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -4107,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Magdalena Tequisistlán</t>
@@ -4120,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Mariscala De Juárez</t>
@@ -4133,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Matías Romero Avendaño</t>
@@ -4146,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Nuevo Zoquiápam</t>
@@ -4159,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -4172,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -4185,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>Salina Cruz</t>
@@ -4198,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>San Agustín Atenango</t>
@@ -4211,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>San Andrés Cabecera Nueva</t>
@@ -4224,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>San Baltazar Loxicha</t>
@@ -4237,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>San Cristóbal Lachirioag</t>
@@ -4250,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -4263,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>San Juan Lachigalla</t>
@@ -4276,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>San Juan Mazatlán</t>
@@ -4289,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>San Juan Mixtepec - Distr. 08 -</t>
@@ -4302,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>San Marcos Arteaga</t>
@@ -4315,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>San Martín Peras</t>
@@ -4328,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>San Miguel Ahuehuetitlán</t>
@@ -4341,6 +5636,11 @@
       </c>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>San Miguel Tecomatlán</t>
@@ -4354,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>San Miguel Tequixtepec</t>
@@ -4367,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Santa Inés Del Monte</t>
@@ -4380,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Santa María Jacatepec</t>
@@ -4393,6 +5708,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Santa María Yucuhiti</t>
@@ -4406,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Santa María Zacatepec</t>
@@ -4419,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Santiago Jamiltepec</t>
@@ -4432,6 +5762,11 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>Santiago Jocotepec</t>
@@ -4445,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -4458,6 +5798,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>Santiago Llano Grande</t>
@@ -4471,6 +5816,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Santo Domingo Teojomulco</t>
@@ -4484,6 +5834,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>Tamazulápam Del Espíritu Santo</t>
@@ -4497,6 +5852,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>Teotongo</t>
@@ -4546,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Acatzingo</t>
@@ -4559,6 +5924,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Ahuacatlán</t>
@@ -4572,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Ahuatlán</t>
@@ -4585,6 +5960,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Ahuehuetitla</t>
@@ -4598,6 +5978,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Ajalpan</t>
@@ -4611,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -4624,6 +6014,11 @@
       </c>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>Atzitzihuacán</t>
@@ -4637,6 +6032,11 @@
       </c>
     </row>
     <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>Calpan</t>
@@ -4650,6 +6050,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -4663,6 +6068,11 @@
       </c>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>Chiautzingo</t>
@@ -4676,6 +6086,11 @@
       </c>
     </row>
     <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>Chichiquila</t>
@@ -4689,6 +6104,11 @@
       </c>
     </row>
     <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -4702,6 +6122,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -4715,6 +6140,11 @@
       </c>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>Cohetzala</t>
@@ -4728,6 +6158,11 @@
       </c>
     </row>
     <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>Coronango</t>
@@ -4741,6 +6176,11 @@
       </c>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>Cuautlancingo</t>
@@ -4754,6 +6194,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>Cuyoaco</t>
@@ -4767,6 +6212,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>Domingo Arenas</t>
@@ -4780,6 +6230,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -4793,6 +6248,11 @@
       </c>
     </row>
     <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B328" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -4806,6 +6266,11 @@
       </c>
     </row>
     <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B329" t="inlineStr">
         <is>
           <t>Huehuetlán El Chico</t>
@@ -4819,6 +6284,11 @@
       </c>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>Huehuetlán El Grande</t>
@@ -4832,6 +6302,11 @@
       </c>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -4845,6 +6320,11 @@
       </c>
     </row>
     <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -4858,6 +6338,11 @@
       </c>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>Jolalpan</t>
@@ -4871,6 +6356,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>Juan C. Bonilla</t>
@@ -4884,6 +6374,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>Libres</t>
@@ -4897,6 +6392,11 @@
       </c>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -4910,6 +6410,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>Quecholac</t>
@@ -4923,6 +6428,11 @@
       </c>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>Rafael Lara Grajales</t>
@@ -4936,6 +6446,11 @@
       </c>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>San Jerónimo Xayacatlán</t>
@@ -4949,6 +6464,11 @@
       </c>
     </row>
     <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -4962,6 +6482,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -4975,6 +6500,11 @@
       </c>
     </row>
     <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>San Pedro Yeloixtlahuaca</t>
@@ -4988,6 +6518,11 @@
       </c>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>San Salvador El Verde</t>
@@ -5001,6 +6536,11 @@
       </c>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>Santa Inés Ahuatempan</t>
@@ -5014,6 +6554,11 @@
       </c>
     </row>
     <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>Santa Isabel Cholula</t>
@@ -5027,6 +6572,11 @@
       </c>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>Soltepec</t>
@@ -5040,6 +6590,11 @@
       </c>
     </row>
     <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>Tecali De Herrera</t>
@@ -5053,6 +6608,11 @@
       </c>
     </row>
     <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>Tecamachalco</t>
@@ -5066,6 +6626,11 @@
       </c>
     </row>
     <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
           <t>Tecomatlán</t>
@@ -5079,6 +6644,11 @@
       </c>
     </row>
     <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -5092,6 +6662,11 @@
       </c>
     </row>
     <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B351" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -5105,6 +6680,11 @@
       </c>
     </row>
     <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>Teopantlán</t>
@@ -5118,6 +6698,11 @@
       </c>
     </row>
     <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B353" t="inlineStr">
         <is>
           <t>Tepexco</t>
@@ -5131,6 +6716,11 @@
       </c>
     </row>
     <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
           <t>Tepexi De Rodríguez</t>
@@ -5144,6 +6734,11 @@
       </c>
     </row>
     <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
           <t>Tepeyahualco</t>
@@ -5157,6 +6752,11 @@
       </c>
     </row>
     <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B356" t="inlineStr">
         <is>
           <t>Tetela De Ocampo</t>
@@ -5170,6 +6770,11 @@
       </c>
     </row>
     <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B357" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -5183,6 +6788,11 @@
       </c>
     </row>
     <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B358" t="inlineStr">
         <is>
           <t>Tianguismanalco</t>
@@ -5196,6 +6806,11 @@
       </c>
     </row>
     <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B359" t="inlineStr">
         <is>
           <t>Tlachichuca</t>
@@ -5209,6 +6824,11 @@
       </c>
     </row>
     <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B360" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -5222,6 +6842,11 @@
       </c>
     </row>
     <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B361" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -5235,6 +6860,11 @@
       </c>
     </row>
     <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B362" t="inlineStr">
         <is>
           <t>Tlaltenango</t>
@@ -5248,6 +6878,11 @@
       </c>
     </row>
     <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B363" t="inlineStr">
         <is>
           <t>Tlatlauquitepec</t>
@@ -5261,6 +6896,11 @@
       </c>
     </row>
     <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B364" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -5274,6 +6914,11 @@
       </c>
     </row>
     <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B365" t="inlineStr">
         <is>
           <t>Tochimilco</t>
@@ -5287,6 +6932,11 @@
       </c>
     </row>
     <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B366" t="inlineStr">
         <is>
           <t>Tochtepec</t>
@@ -5300,6 +6950,11 @@
       </c>
     </row>
     <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B367" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -5313,6 +6968,11 @@
       </c>
     </row>
     <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B368" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -5326,6 +6986,11 @@
       </c>
     </row>
     <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B369" t="inlineStr">
         <is>
           <t>Xayacatlán De Bravo</t>
@@ -5339,6 +7004,11 @@
       </c>
     </row>
     <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B370" t="inlineStr">
         <is>
           <t>Xicotepec</t>
@@ -5352,6 +7022,11 @@
       </c>
     </row>
     <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B371" t="inlineStr">
         <is>
           <t>Xicotlán</t>
@@ -5365,6 +7040,11 @@
       </c>
     </row>
     <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B372" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -5378,6 +7058,11 @@
       </c>
     </row>
     <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B373" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5409,6 +7094,11 @@
       </c>
     </row>
     <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B375" t="inlineStr">
         <is>
           <t>Colón</t>
@@ -5422,6 +7112,11 @@
       </c>
     </row>
     <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B376" t="inlineStr">
         <is>
           <t>Ezequiel Montes</t>
@@ -5435,6 +7130,11 @@
       </c>
     </row>
     <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B377" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -5448,6 +7148,11 @@
       </c>
     </row>
     <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B378" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -5497,6 +7202,11 @@
       </c>
     </row>
     <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B381" t="inlineStr">
         <is>
           <t>Axtla De Terrazas</t>
@@ -5510,6 +7220,11 @@
       </c>
     </row>
     <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B382" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -5523,6 +7238,11 @@
       </c>
     </row>
     <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B383" t="inlineStr">
         <is>
           <t>Ciudad Del Maíz</t>
@@ -5536,6 +7256,11 @@
       </c>
     </row>
     <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B384" t="inlineStr">
         <is>
           <t>Ciudad Fernández</t>
@@ -5549,6 +7274,11 @@
       </c>
     </row>
     <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B385" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -5562,6 +7292,11 @@
       </c>
     </row>
     <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B386" t="inlineStr">
         <is>
           <t>Guadalcázar</t>
@@ -5575,6 +7310,11 @@
       </c>
     </row>
     <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B387" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -5588,6 +7328,11 @@
       </c>
     </row>
     <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B388" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -5601,6 +7346,11 @@
       </c>
     </row>
     <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B389" t="inlineStr">
         <is>
           <t>San Ciro De Acosta</t>
@@ -5614,6 +7364,11 @@
       </c>
     </row>
     <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B390" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -5627,6 +7382,11 @@
       </c>
     </row>
     <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B391" t="inlineStr">
         <is>
           <t>San Nicolás Tolentino</t>
@@ -5640,6 +7400,11 @@
       </c>
     </row>
     <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B392" t="inlineStr">
         <is>
           <t>Tamasopo</t>
@@ -5653,6 +7418,11 @@
       </c>
     </row>
     <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B393" t="inlineStr">
         <is>
           <t>Tamazunchale</t>
@@ -5774,6 +7544,11 @@
       </c>
     </row>
     <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B400" t="inlineStr">
         <is>
           <t>Centro</t>
@@ -5787,6 +7562,11 @@
       </c>
     </row>
     <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B401" t="inlineStr">
         <is>
           <t>Cunduacán</t>
@@ -5800,6 +7580,11 @@
       </c>
     </row>
     <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B402" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -5813,6 +7598,11 @@
       </c>
     </row>
     <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B403" t="inlineStr">
         <is>
           <t>Jalpa De Méndez</t>
@@ -5826,6 +7616,11 @@
       </c>
     </row>
     <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B404" t="inlineStr">
         <is>
           <t>Macuspana</t>
@@ -5839,6 +7634,11 @@
       </c>
     </row>
     <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B405" t="inlineStr">
         <is>
           <t>Teapa</t>
@@ -5888,6 +7688,11 @@
       </c>
     </row>
     <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B408" t="inlineStr">
         <is>
           <t>Ciudad Madero</t>
@@ -5901,6 +7706,11 @@
       </c>
     </row>
     <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B409" t="inlineStr">
         <is>
           <t>El Mante</t>
@@ -5914,6 +7724,11 @@
       </c>
     </row>
     <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B410" t="inlineStr">
         <is>
           <t>González</t>
@@ -5927,6 +7742,11 @@
       </c>
     </row>
     <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B411" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -5940,6 +7760,11 @@
       </c>
     </row>
     <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B412" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -5953,6 +7778,11 @@
       </c>
     </row>
     <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B413" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -5966,6 +7796,11 @@
       </c>
     </row>
     <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B414" t="inlineStr">
         <is>
           <t>Río Bravo</t>
@@ -5979,6 +7814,11 @@
       </c>
     </row>
     <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B415" t="inlineStr">
         <is>
           <t>Valle Hermoso</t>
@@ -6028,6 +7868,11 @@
       </c>
     </row>
     <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B418" t="inlineStr">
         <is>
           <t>Calpulalpan</t>
@@ -6041,6 +7886,11 @@
       </c>
     </row>
     <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B419" t="inlineStr">
         <is>
           <t>Hueyotlipan</t>
@@ -6054,6 +7904,11 @@
       </c>
     </row>
     <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B420" t="inlineStr">
         <is>
           <t>Santa Cruz Tlaxcala</t>
@@ -6067,6 +7922,11 @@
       </c>
     </row>
     <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B421" t="inlineStr">
         <is>
           <t>Xaloztoc</t>
@@ -6080,6 +7940,11 @@
       </c>
     </row>
     <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B422" t="inlineStr">
         <is>
           <t>Xaltocan</t>
@@ -6129,6 +7994,11 @@
       </c>
     </row>
     <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B425" t="inlineStr">
         <is>
           <t>Acula</t>
@@ -6142,6 +8012,11 @@
       </c>
     </row>
     <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B426" t="inlineStr">
         <is>
           <t>Altotonga</t>
@@ -6155,6 +8030,11 @@
       </c>
     </row>
     <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B427" t="inlineStr">
         <is>
           <t>Alvarado</t>
@@ -6168,6 +8048,11 @@
       </c>
     </row>
     <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B428" t="inlineStr">
         <is>
           <t>Angel R. Cabada</t>
@@ -6181,6 +8066,11 @@
       </c>
     </row>
     <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B429" t="inlineStr">
         <is>
           <t>Apazapan</t>
@@ -6194,6 +8084,11 @@
       </c>
     </row>
     <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B430" t="inlineStr">
         <is>
           <t>Atoyac</t>
@@ -6207,6 +8102,11 @@
       </c>
     </row>
     <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B431" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -6220,6 +8120,11 @@
       </c>
     </row>
     <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B432" t="inlineStr">
         <is>
           <t>Boca Del Río</t>
@@ -6233,6 +8138,11 @@
       </c>
     </row>
     <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B433" t="inlineStr">
         <is>
           <t>Carrillo Puerto</t>
@@ -6246,6 +8156,11 @@
       </c>
     </row>
     <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B434" t="inlineStr">
         <is>
           <t>Cazones</t>
@@ -6259,6 +8174,11 @@
       </c>
     </row>
     <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B435" t="inlineStr">
         <is>
           <t>Chacaltianguis</t>
@@ -6272,6 +8192,11 @@
       </c>
     </row>
     <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B436" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -6285,6 +8210,11 @@
       </c>
     </row>
     <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B437" t="inlineStr">
         <is>
           <t>Colipa</t>
@@ -6298,6 +8228,11 @@
       </c>
     </row>
     <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B438" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -6311,6 +8246,11 @@
       </c>
     </row>
     <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B439" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -6324,6 +8264,11 @@
       </c>
     </row>
     <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B440" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -6337,6 +8282,11 @@
       </c>
     </row>
     <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B441" t="inlineStr">
         <is>
           <t>Coxquihui</t>
@@ -6350,6 +8300,11 @@
       </c>
     </row>
     <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B442" t="inlineStr">
         <is>
           <t>Cuitláhuac</t>
@@ -6363,6 +8318,11 @@
       </c>
     </row>
     <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B443" t="inlineStr">
         <is>
           <t>Fortín</t>
@@ -6376,6 +8336,11 @@
       </c>
     </row>
     <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B444" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -6389,6 +8354,11 @@
       </c>
     </row>
     <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B445" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -6402,6 +8372,11 @@
       </c>
     </row>
     <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B446" t="inlineStr">
         <is>
           <t>Jalacingo</t>
@@ -6415,6 +8390,11 @@
       </c>
     </row>
     <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B447" t="inlineStr">
         <is>
           <t>Jáltipan</t>
@@ -6428,6 +8408,11 @@
       </c>
     </row>
     <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B448" t="inlineStr">
         <is>
           <t>Jamapa</t>
@@ -6441,6 +8426,11 @@
       </c>
     </row>
     <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B449" t="inlineStr">
         <is>
           <t>Jesús Carranza</t>
@@ -6454,6 +8444,11 @@
       </c>
     </row>
     <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B450" t="inlineStr">
         <is>
           <t>Lerdo De Tejada</t>
@@ -6467,6 +8462,11 @@
       </c>
     </row>
     <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B451" t="inlineStr">
         <is>
           <t>Mariano Escobedo</t>
@@ -6480,6 +8480,11 @@
       </c>
     </row>
     <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B452" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -6493,6 +8498,11 @@
       </c>
     </row>
     <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B453" t="inlineStr">
         <is>
           <t>Mecayapan</t>
@@ -6506,6 +8516,11 @@
       </c>
     </row>
     <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B454" t="inlineStr">
         <is>
           <t>Medellín</t>
@@ -6519,6 +8534,11 @@
       </c>
     </row>
     <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B455" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -6532,6 +8552,11 @@
       </c>
     </row>
     <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B456" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -6545,6 +8570,11 @@
       </c>
     </row>
     <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B457" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -6558,6 +8588,11 @@
       </c>
     </row>
     <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B458" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -6571,6 +8606,11 @@
       </c>
     </row>
     <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B459" t="inlineStr">
         <is>
           <t>Paso De Ovejas</t>
@@ -6584,6 +8624,11 @@
       </c>
     </row>
     <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B460" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -6597,6 +8642,11 @@
       </c>
     </row>
     <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B461" t="inlineStr">
         <is>
           <t>Pueblo Viejo</t>
@@ -6610,6 +8660,11 @@
       </c>
     </row>
     <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B462" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -6623,6 +8678,11 @@
       </c>
     </row>
     <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B463" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -6636,6 +8696,11 @@
       </c>
     </row>
     <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B464" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -6649,6 +8714,11 @@
       </c>
     </row>
     <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B465" t="inlineStr">
         <is>
           <t>Tantoyuca</t>
@@ -6662,6 +8732,11 @@
       </c>
     </row>
     <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B466" t="inlineStr">
         <is>
           <t>Tecolutla</t>
@@ -6675,6 +8750,11 @@
       </c>
     </row>
     <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B467" t="inlineStr">
         <is>
           <t>Temapache</t>
@@ -6688,6 +8768,11 @@
       </c>
     </row>
     <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B468" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -6701,6 +8786,11 @@
       </c>
     </row>
     <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -6714,6 +8804,11 @@
       </c>
     </row>
     <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
           <t>Tihuatlán</t>
@@ -6727,6 +8822,11 @@
       </c>
     </row>
     <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B471" t="inlineStr">
         <is>
           <t>Tlacotalpan</t>
@@ -6740,6 +8840,11 @@
       </c>
     </row>
     <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -6753,6 +8858,11 @@
       </c>
     </row>
     <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
           <t>Tres Valles</t>
@@ -6766,6 +8876,11 @@
       </c>
     </row>
     <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B474" t="inlineStr">
         <is>
           <t>Tuxpam</t>
@@ -6779,6 +8894,11 @@
       </c>
     </row>
     <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B475" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -6792,6 +8912,11 @@
       </c>
     </row>
     <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
           <t>Yecuatla</t>
@@ -6877,6 +9002,11 @@
       </c>
     </row>
     <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B481" t="inlineStr">
         <is>
           <t>Pinos</t>
@@ -6890,6 +9020,11 @@
       </c>
     </row>
     <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B482" t="inlineStr">
         <is>
           <t>Río Grande</t>
@@ -6903,6 +9038,11 @@
       </c>
     </row>
     <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B483" t="inlineStr">
         <is>
           <t>Tepechitlán</t>
